--- a/Pre_Post_Performance.xlsx
+++ b/Pre_Post_Performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36945" windowHeight="15015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36950" windowHeight="15020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic data" sheetId="4" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="Statistics per level" sheetId="3" r:id="rId3"/>
     <sheet name="Summary Statistics" sheetId="2" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -359,24 +356,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -395,6 +377,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2715,13 +2712,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>2.3333333330000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4666666666666601</c:v>
+                  <c:v>2.4222222219999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2888888888888999</c:v>
+                  <c:v>2.266666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,13 +2777,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.95555555555555594</c:v>
+                  <c:v>0.88888888855555614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73333333333332718</c:v>
+                  <c:v>0.68888888866666687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77777777777778878</c:v>
+                  <c:v>0.7555555558888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,13 +3128,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>2.3333333330000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4666666666666601</c:v>
+                  <c:v>2.4222222219999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2888888888888999</c:v>
+                  <c:v>2.266666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6964,114 +6961,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Level Distribution"/>
-      <sheetName val="Mean Proficiency"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Level 1</v>
-          </cell>
-          <cell r="B2">
-            <v>28</v>
-          </cell>
-          <cell r="C2">
-            <v>7</v>
-          </cell>
-          <cell r="D2">
-            <v>19</v>
-          </cell>
-          <cell r="E2">
-            <v>6</v>
-          </cell>
-          <cell r="F2">
-            <v>29</v>
-          </cell>
-          <cell r="G2">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Level 2</v>
-          </cell>
-          <cell r="B3">
-            <v>14</v>
-          </cell>
-          <cell r="C3">
-            <v>16</v>
-          </cell>
-          <cell r="D3">
-            <v>19</v>
-          </cell>
-          <cell r="E3">
-            <v>14</v>
-          </cell>
-          <cell r="F3">
-            <v>9</v>
-          </cell>
-          <cell r="G3">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Level 3</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-          <cell r="C4">
-            <v>16</v>
-          </cell>
-          <cell r="D4">
-            <v>7</v>
-          </cell>
-          <cell r="E4">
-            <v>16</v>
-          </cell>
-          <cell r="F4">
-            <v>7</v>
-          </cell>
-          <cell r="G4">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Level 4</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>6</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>9</v>
-          </cell>
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-          <cell r="G5">
-            <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7361,1104 +7250,1104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:L49"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27"/>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19">
-        <v>1</v>
-      </c>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20">
-        <v>1</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19">
-        <v>1</v>
-      </c>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14">
+        <v>1</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14">
+        <v>1</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19">
-        <v>1</v>
-      </c>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
+        <v>1</v>
+      </c>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19">
-        <v>1</v>
-      </c>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19">
-        <v>1</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20">
-        <v>1</v>
-      </c>
-      <c r="I22" s="18">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20">
-        <v>1</v>
-      </c>
-      <c r="I24" s="18">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19">
-        <v>1</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20">
-        <v>1</v>
-      </c>
-      <c r="I26" s="18">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19">
-        <v>1</v>
-      </c>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14">
+        <v>1</v>
+      </c>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19">
-        <v>1</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
-      <c r="I28" s="18">
-        <v>1</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="18">
-        <v>1</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="18">
-        <v>1</v>
-      </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19">
-        <v>1</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="18">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19">
-        <v>1</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20">
-        <v>1</v>
-      </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19">
-        <v>1</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19">
-        <v>1</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19">
-        <v>1</v>
-      </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20">
-        <v>1</v>
-      </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19">
-        <v>1</v>
-      </c>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14">
+        <v>1</v>
+      </c>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20">
-        <v>1</v>
-      </c>
-      <c r="I34" s="18">
-        <v>1</v>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>1</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="18">
-        <v>1</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19">
-        <v>1</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20">
-        <v>1</v>
-      </c>
-      <c r="I36" s="18">
-        <v>1</v>
-      </c>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20">
-        <v>1</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19">
-        <v>1</v>
-      </c>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14">
+        <v>1</v>
+      </c>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19">
-        <v>1</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20">
-        <v>1</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19">
-        <v>1</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15">
+        <v>1</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20">
-        <v>1</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19">
-        <v>1</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19">
-        <v>1</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14">
+        <v>1</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14">
+        <v>1</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19">
-        <v>1</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19">
-        <v>1</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19">
-        <v>1</v>
-      </c>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14">
+        <v>1</v>
+      </c>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20">
-        <v>1</v>
-      </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="19">
-        <v>1</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="18">
-        <v>1</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20">
-        <v>1</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19">
-        <v>1</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15">
+        <v>1</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14">
+        <v>1</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20">
-        <v>1</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19">
-        <v>1</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="18">
-        <v>1</v>
-      </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14">
+        <v>1</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="13">
+        <v>1</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="18">
-        <v>1</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="18">
-        <v>1</v>
-      </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="13">
+        <v>1</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19">
-        <v>1</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20">
-        <v>1</v>
-      </c>
-      <c r="I45" s="18">
-        <v>1</v>
-      </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15">
+        <v>1</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20">
-        <v>1</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19">
-        <v>1</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19">
-        <v>1</v>
-      </c>
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14">
+        <v>1</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14">
+        <v>1</v>
+      </c>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22">
-        <v>1</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23">
-        <v>1</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22">
-        <v>1</v>
-      </c>
-      <c r="L47" s="23"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17">
+        <v>1</v>
+      </c>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>31</v>
       </c>
@@ -8522,22 +8411,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8563,7 +8452,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8586,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8609,7 +8498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8632,7 +8521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8655,7 +8544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8678,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8701,7 +8590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8724,7 +8613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8747,7 +8636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8767,10 +8656,10 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8793,7 +8682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8816,7 +8705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8839,7 +8728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8862,7 +8751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8885,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8908,7 +8797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8931,7 +8820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8954,7 +8843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8968,7 +8857,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
@@ -8977,7 +8866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9000,7 +8889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9023,7 +8912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9046,7 +8935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9069,7 +8958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9092,7 +8981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9115,7 +9004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9138,7 +9027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9146,7 +9035,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -9161,7 +9050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9184,7 +9073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9207,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9230,7 +9119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9253,7 +9142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9276,7 +9165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9299,7 +9188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9307,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -9322,7 +9211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9345,7 +9234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9368,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9391,7 +9280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9414,7 +9303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9437,7 +9326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9460,7 +9349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9483,7 +9372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9491,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -9506,7 +9395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9520,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>1</v>
@@ -9529,7 +9418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9552,7 +9441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9575,7 +9464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9598,7 +9487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -9607,24 +9496,24 @@
         <v>1.4444444444444444</v>
       </c>
       <c r="C47" s="2">
-        <f>108/45</f>
-        <v>2.4</v>
+        <f>105/45</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="D47" s="2">
         <f>78/45</f>
         <v>1.7333333333333334</v>
       </c>
       <c r="E47" s="2">
-        <f>111/45</f>
-        <v>2.4666666666666668</v>
+        <f>109/45</f>
+        <v>2.4222222222222221</v>
       </c>
       <c r="F47" s="2">
         <f>68/45</f>
         <v>1.5111111111111111</v>
       </c>
       <c r="G47" s="2">
-        <f>103/45</f>
-        <v>2.2888888888888888</v>
+        <f>102/45</f>
+        <v>2.2666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -9637,19 +9526,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9669,7 +9558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9692,7 +9581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -9715,7 +9604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -9738,7 +9627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -9761,8 +9650,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9775,20 +9664,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9798,65 +9687,65 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="20">
         <v>1.444444444444444</v>
       </c>
-      <c r="C2" s="25">
-        <v>2.4</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="C2" s="20">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="D2" s="20">
         <f>C2-B2</f>
-        <v>0.95555555555555594</v>
-      </c>
-      <c r="E2" s="27">
+        <v>0.88888888855555614</v>
+      </c>
+      <c r="E2" s="22">
         <f>D2/B2</f>
-        <v>0.66153846153846196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.61538461515384679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="20">
         <v>1.7333333333333329</v>
       </c>
-      <c r="C3" s="25">
-        <v>2.4666666666666601</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="C3" s="20">
+        <v>2.4222222219999998</v>
+      </c>
+      <c r="D3" s="20">
         <f t="shared" ref="D3:D4" si="0">C3-B3</f>
-        <v>0.73333333333332718</v>
-      </c>
-      <c r="E3" s="27">
+        <v>0.68888888866666687</v>
+      </c>
+      <c r="E3" s="22">
         <f t="shared" ref="E3:E4" si="1">D3/B3</f>
-        <v>0.42307692307691963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39743589730769252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="20">
         <v>1.5111111111111111</v>
       </c>
-      <c r="C4" s="25">
-        <v>2.2888888888888999</v>
-      </c>
-      <c r="D4" s="25">
+      <c r="C4" s="20">
+        <v>2.266666667</v>
+      </c>
+      <c r="D4" s="20">
         <f t="shared" si="0"/>
-        <v>0.77777777777778878</v>
-      </c>
-      <c r="E4" s="27">
+        <v>0.7555555558888889</v>
+      </c>
+      <c r="E4" s="22">
         <f t="shared" si="1"/>
-        <v>0.51470588235294845</v>
+        <v>0.50000000022058821</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_Post_Performance.xlsx
+++ b/Pre_Post_Performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36950" windowHeight="15020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36950" windowHeight="15020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic data" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="33">
   <si>
     <t>Participant</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Level 3</t>
-  </si>
-  <si>
-    <t>Level 4</t>
   </si>
   <si>
     <t>Improvement</t>
@@ -515,7 +512,7 @@
             <c:strRef>
               <c:f>'Statistics per level'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -524,9 +521,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -545,9 +539,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,7 +580,7 @@
             <c:strRef>
               <c:f>'Statistics per level'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -598,9 +589,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -618,10 +606,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +925,7 @@
             <c:strRef>
               <c:f>'Statistics per level'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -949,9 +934,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -970,9 +952,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,7 +993,7 @@
             <c:strRef>
               <c:f>'Statistics per level'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -1023,9 +1002,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1043,10 +1019,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,7 +1338,7 @@
             <c:strRef>
               <c:f>'Statistics per level'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -1374,9 +1347,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1395,9 +1365,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,7 +1406,7 @@
             <c:strRef>
               <c:f>'Statistics per level'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -1448,9 +1415,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1468,10 +1432,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,9 +1749,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Statistics per level'!$A$2:$A$5</c:f>
+              <c:f>'Statistics per level'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -1799,19 +1760,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Statistics per level'!$B$2:$B$5</c:f>
+              <c:f>'Statistics per level'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>28</c:v>
                 </c:pt>
@@ -1820,9 +1778,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,9 +1814,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Statistics per level'!$A$2:$A$5</c:f>
+              <c:f>'Statistics per level'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -1870,19 +1825,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Statistics per level'!$C$2:$C$5</c:f>
+              <c:f>'Statistics per level'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1890,10 +1842,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,9 +1879,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Statistics per level'!$A$2:$A$5</c:f>
+              <c:f>'Statistics per level'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -1941,19 +1890,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Statistics per level'!$D$2:$D$5</c:f>
+              <c:f>'Statistics per level'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -1962,9 +1908,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,9 +1944,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Statistics per level'!$A$2:$A$5</c:f>
+              <c:f>'Statistics per level'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -2012,19 +1955,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Statistics per level'!$E$2:$E$5</c:f>
+              <c:f>'Statistics per level'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2032,10 +1972,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,9 +2009,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Statistics per level'!$A$2:$A$5</c:f>
+              <c:f>'Statistics per level'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -2083,19 +2020,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Statistics per level'!$F$2:$F$5</c:f>
+              <c:f>'Statistics per level'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -2104,9 +2038,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,9 +2074,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Statistics per level'!$A$2:$A$5</c:f>
+              <c:f>'Statistics per level'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Level 1</c:v>
                 </c:pt>
@@ -2154,19 +2085,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Level 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Level 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Statistics per level'!$G$2:$G$5</c:f>
+              <c:f>'Statistics per level'!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2174,10 +2102,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,7 +2373,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5285166584536451E-2"/>
+          <c:y val="0.86243314620295053"/>
+          <c:w val="0.63188861046164169"/>
+          <c:h val="0.10500683375853644"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7270,18 +7204,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="24"/>
       <c r="I1" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
@@ -7290,37 +7224,37 @@
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27"/>
       <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8349,7 +8283,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="2">
         <f>SUM(B3:B47)</f>
@@ -8431,22 +8365,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -9489,7 +9423,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="2">
         <f>65/45</f>
@@ -9526,8 +9460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9540,22 +9474,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -9612,43 +9546,23 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
@@ -9664,7 +9578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -9679,21 +9593,21 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="20">
         <v>1.444444444444444</v>
@@ -9712,7 +9626,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="20">
         <v>1.7333333333333329</v>
@@ -9731,7 +9645,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="20">
         <v>1.5111111111111111</v>
